--- a/second-order/1877/September1877.xlsx
+++ b/second-order/1877/September1877.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1877 not finished\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1877/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14021" documentId="13_ncr:1_{16F0942E-3FA6-45C3-A48B-66E7B6B41F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{381F0DB9-156F-49EB-8E75-210306317833}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF60E1-96F5-004A-9F4B-7821366F4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="2720" yWindow="620" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="2" activeTab="7" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -340,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -649,7 +649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -755,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,17 +907,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3050,13 +3050,13 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -3093,7 +3093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>69</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>69</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>69</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>69</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5189,13 +5189,13 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5232,7 +5232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -7327,22 +7327,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -7379,7 +7379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9453,7 +9453,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -9493,13 +9493,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -9536,7 +9536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11632,13 +11632,13 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -11675,7 +11675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -13770,22 +13770,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -13822,7 +13822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -15896,7 +15896,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -15936,13 +15936,13 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -15979,7 +15979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>75</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
@@ -17929,7 +17929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -18075,13 +18075,13 @@
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -18118,7 +18118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -19418,7 +19418,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -20212,23 +20212,23 @@
   <dimension ref="A2:XFD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -20265,7 +20265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -20850,7 +20850,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>82</v>
       </c>
@@ -21110,7 +21110,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>82</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>82</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -22339,7 +22339,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -22357,7 +22357,7 @@
       <c r="U35"/>
       <c r="XFD35"/>
     </row>
-    <row r="38" spans="1:21 16384:16384">
+    <row r="38" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="N38"/>
     </row>
   </sheetData>
@@ -22383,13 +22383,13 @@
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -22426,7 +22426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
@@ -22881,7 +22881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>83</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>83</v>
       </c>
@@ -23011,7 +23011,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
@@ -23076,7 +23076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
@@ -23271,7 +23271,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
@@ -23401,7 +23401,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
@@ -24116,7 +24116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>83</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -24522,12 +24522,12 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -24564,7 +24564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -24824,7 +24824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -25084,7 +25084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -25149,7 +25149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -25344,7 +25344,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -25474,7 +25474,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -25669,7 +25669,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -25799,7 +25799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -26254,7 +26254,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -26514,7 +26514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
@@ -26579,7 +26579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -26660,13 +26660,13 @@
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -26703,7 +26703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -26768,7 +26768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -26898,7 +26898,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -27093,7 +27093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -27223,7 +27223,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -27418,7 +27418,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>84</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -27743,7 +27743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
@@ -27808,7 +27808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -28003,7 +28003,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -28133,7 +28133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -28198,7 +28198,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -28263,7 +28263,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -28328,7 +28328,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>84</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -28458,7 +28458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -28523,7 +28523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
@@ -28653,7 +28653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -28718,7 +28718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -28798,22 +28798,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -28850,7 +28850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -29110,7 +29110,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -29175,7 +29175,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -29305,7 +29305,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -29435,7 +29435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -29500,7 +29500,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -29565,7 +29565,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -29630,7 +29630,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -29760,7 +29760,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -29890,7 +29890,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
@@ -29955,7 +29955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -30085,7 +30085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -30215,7 +30215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -30280,7 +30280,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -30345,7 +30345,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -30410,7 +30410,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -30540,7 +30540,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -30605,7 +30605,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -30670,7 +30670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -30735,7 +30735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -30800,7 +30800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30924,7 +30924,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -30967,12 +30967,12 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -31009,7 +31009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -31074,7 +31074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -31334,7 +31334,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -31399,7 +31399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -31594,7 +31594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -31659,7 +31659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -31724,7 +31724,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -31789,7 +31789,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -31854,7 +31854,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -31919,7 +31919,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -31984,7 +31984,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -32049,7 +32049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
@@ -32179,7 +32179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -32244,7 +32244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -32309,7 +32309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -32374,7 +32374,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -32439,7 +32439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -32569,7 +32569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -32634,7 +32634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -32699,7 +32699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>86</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -32829,7 +32829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -32894,7 +32894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
@@ -32959,7 +32959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -33103,23 +33103,23 @@
   <dimension ref="A2:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="F32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -33156,7 +33156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -33286,7 +33286,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
@@ -33351,7 +33351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
@@ -33416,7 +33416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -33481,7 +33481,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -33546,7 +33546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -33611,7 +33611,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>90</v>
       </c>
@@ -33741,7 +33741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
@@ -33806,7 +33806,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
@@ -33871,7 +33871,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>90</v>
       </c>
@@ -33936,7 +33936,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
@@ -34001,7 +34001,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
@@ -34066,7 +34066,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
@@ -34131,7 +34131,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -34196,7 +34196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -34261,7 +34261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>90</v>
       </c>
@@ -34326,7 +34326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -34391,7 +34391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
@@ -34456,7 +34456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -34521,7 +34521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
@@ -34586,7 +34586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
@@ -34716,7 +34716,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
@@ -34781,7 +34781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -34846,7 +34846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
@@ -34911,7 +34911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>90</v>
       </c>
@@ -34976,7 +34976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -35041,7 +35041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
@@ -35106,7 +35106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:22 16384:16384">
+    <row r="33" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
@@ -35171,7 +35171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:22 16384:16384">
+    <row r="34" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -35230,7 +35230,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="35" spans="1:22 16384:16384">
+    <row r="35" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -35271,22 +35271,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -35323,7 +35323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -35388,7 +35388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -35453,7 +35453,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -35583,7 +35583,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -35648,7 +35648,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -35713,7 +35713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -35843,7 +35843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -35908,7 +35908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -35973,7 +35973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -36038,7 +36038,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -36103,7 +36103,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -36168,7 +36168,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -36233,7 +36233,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -36298,7 +36298,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -36363,7 +36363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -36428,7 +36428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -36493,7 +36493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -36558,7 +36558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -36623,7 +36623,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -36688,7 +36688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -36948,7 +36948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -37013,7 +37013,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -37078,7 +37078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -37143,7 +37143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -37208,7 +37208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -37273,7 +37273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -37338,7 +37338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -37397,7 +37397,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -37416,7 +37416,7 @@
       <c r="T35"/>
       <c r="U35"/>
     </row>
-    <row r="62" spans="9:9">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I62" s="1">
         <v>41.8</v>
       </c>
@@ -37444,13 +37444,13 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -37487,7 +37487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -37552,7 +37552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -37617,7 +37617,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -37682,7 +37682,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -37747,7 +37747,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -37812,7 +37812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -37877,7 +37877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -37942,7 +37942,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -38007,7 +38007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -38072,7 +38072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -38137,7 +38137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -38267,7 +38267,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -38332,7 +38332,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -38397,7 +38397,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -38462,7 +38462,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -38527,7 +38527,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -38592,7 +38592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -38657,7 +38657,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -38722,7 +38722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -38787,7 +38787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -38852,7 +38852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -38917,7 +38917,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -38982,7 +38982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -39047,7 +39047,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -39112,7 +39112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -39242,7 +39242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -39307,7 +39307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -39372,7 +39372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -39437,7 +39437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -39502,7 +39502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -39582,22 +39582,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="V35" sqref="V35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -39634,7 +39634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -39699,7 +39699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -39764,7 +39764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -39829,7 +39829,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -39894,7 +39894,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -39959,7 +39959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -40024,7 +40024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -40089,7 +40089,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -40219,7 +40219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -40284,7 +40284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -40349,7 +40349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -40414,7 +40414,7 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -40479,7 +40479,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -40544,7 +40544,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -40609,7 +40609,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -40674,7 +40674,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -40739,7 +40739,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -40804,7 +40804,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -40869,7 +40869,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -40934,7 +40934,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -40999,7 +40999,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -41064,7 +41064,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -41129,7 +41129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -41194,7 +41194,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -41259,7 +41259,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -41324,7 +41324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -41389,7 +41389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -41454,7 +41454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -41519,7 +41519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -41584,7 +41584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -41649,7 +41649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -41708,7 +41708,7 @@
         <v>4.9729999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -41725,7 +41725,7 @@
       <c r="T35"/>
       <c r="U35"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -41752,22 +41752,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -41804,7 +41804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41869,7 +41869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -41934,7 +41934,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -41999,7 +41999,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -42064,7 +42064,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -42129,7 +42129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -42194,7 +42194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -42259,7 +42259,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -42324,7 +42324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -42389,7 +42389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -42454,7 +42454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -42519,7 +42519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -42584,7 +42584,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -42649,7 +42649,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -42714,7 +42714,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -42779,7 +42779,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -42844,7 +42844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -42909,7 +42909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -42974,7 +42974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -43039,7 +43039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -43104,7 +43104,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -43169,7 +43169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -43234,7 +43234,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -43299,7 +43299,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -43364,7 +43364,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -43429,7 +43429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -43494,7 +43494,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -43559,7 +43559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -43624,7 +43624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -43689,7 +43689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -43754,7 +43754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -43819,7 +43819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -43878,7 +43878,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -43919,13 +43919,13 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -43962,7 +43962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -44027,7 +44027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -44092,7 +44092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -44157,7 +44157,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -44222,7 +44222,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -44287,7 +44287,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -44352,7 +44352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -44417,7 +44417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -44482,7 +44482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -44547,7 +44547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -44612,7 +44612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -44742,7 +44742,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -44807,7 +44807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -44872,7 +44872,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -44937,7 +44937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -45002,7 +45002,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -45067,7 +45067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -45132,7 +45132,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -45197,7 +45197,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -45262,7 +45262,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -45327,7 +45327,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -45392,7 +45392,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -45457,7 +45457,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -45522,7 +45522,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -45587,7 +45587,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -45652,7 +45652,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -45717,7 +45717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -45782,7 +45782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
@@ -45847,7 +45847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -45912,7 +45912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -45977,7 +45977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -46054,17 +46054,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69065F44-B6FE-4052-938F-A53648DF520D}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -46101,7 +46101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -46166,7 +46166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -46231,7 +46231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -46296,7 +46296,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -46361,7 +46361,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -46426,7 +46426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -46491,7 +46491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -46556,7 +46556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -46621,7 +46621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -46686,7 +46686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -46751,7 +46751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -46768,7 +46768,7 @@
         <v>30.045999999999999</v>
       </c>
       <c r="F13" s="6">
-        <v>329.99</v>
+        <v>29.99</v>
       </c>
       <c r="G13" s="1">
         <v>56</v>
@@ -46816,7 +46816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -46881,7 +46881,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -46946,7 +46946,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -47011,7 +47011,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -47076,7 +47076,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -47141,7 +47141,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -47206,7 +47206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -47271,7 +47271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -47336,7 +47336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -47401,7 +47401,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -47466,7 +47466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -47531,7 +47531,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -47596,7 +47596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -47661,7 +47661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -47726,7 +47726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -47791,7 +47791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -47856,7 +47856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -47921,7 +47921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -47986,7 +47986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -48051,7 +48051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
@@ -48116,7 +48116,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -48196,22 +48196,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -48248,7 +48248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -48313,7 +48313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -48378,7 +48378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -48443,7 +48443,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -48508,7 +48508,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -48573,7 +48573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -48638,7 +48638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -48703,7 +48703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -48768,7 +48768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -48833,7 +48833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -48898,7 +48898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -48963,7 +48963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -49028,7 +49028,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -49093,7 +49093,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -49158,7 +49158,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -49223,7 +49223,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -49288,7 +49288,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -49353,7 +49353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
@@ -49418,7 +49418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -49483,7 +49483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -49548,7 +49548,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -49613,7 +49613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -49678,7 +49678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
@@ -49743,7 +49743,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -49808,7 +49808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -49873,7 +49873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -49938,7 +49938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -50003,7 +50003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -50068,7 +50068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -50133,7 +50133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -50198,7 +50198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
@@ -50263,7 +50263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -50322,7 +50322,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -50356,35 +50356,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33281</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33281</Url>
-      <Description>H7Q62YT2XCZT-908671883-33281</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -50432,6 +50403,35 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33281</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33281</Url>
+      <Description>H7Q62YT2XCZT-908671883-33281</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50742,17 +50742,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A228AF1-1ED5-4B4F-9760-7979A6F071C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A228AF1-1ED5-4B4F-9760-7979A6F071C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929D297-9D45-4561-9959-07ED29F8DE12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6929D297-9D45-4561-9959-07ED29F8DE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>